--- a/indicadores/04/tabelas/2009_bacias.xlsx
+++ b/indicadores/04/tabelas/2009_bacias.xlsx
@@ -12,16 +12,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
-    <t>LEGENDA</t>
+    <t>legenda</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>nome</t>
   </si>
   <si>
     <t>area_km2</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>area_km2_1</t>
   </si>
   <si>
     <t>Extensão de agricultura e silvicultura (ano-base 2009)</t>
@@ -179,7 +179,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>8258.27</v>
+        <v>15218.4500735</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -193,7 +193,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>980.16</v>
+        <v>2071.24351554</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -207,7 +207,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>8208.459999999999</v>
+        <v>11536.911461</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -221,7 +221,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1181.61</v>
+        <v>1675.69051521</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -235,7 +235,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1111.13</v>
+        <v>2352.8960852</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -249,7 +249,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>2540.18</v>
+        <v>4150.10357051</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -263,7 +263,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>4922.29</v>
+        <v>9619.196072950001</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -277,7 +277,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>4996.66</v>
+        <v>7226.80132027</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -291,7 +291,7 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>1839.74</v>
+        <v>1893.2236196</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -305,7 +305,7 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>747.015</v>
+        <v>947.873678947</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -319,7 +319,7 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>9766.32</v>
+        <v>12098.4580798</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -333,7 +333,7 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>2417.88</v>
+        <v>2572.3296401</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -347,7 +347,7 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>326.652</v>
+        <v>338.271731251</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -361,7 +361,7 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>2010.79</v>
+        <v>2141.05750381</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -375,7 +375,7 @@
         <v>4</v>
       </c>
       <c r="B16">
-        <v>11877.6</v>
+        <v>19994.0316874</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -389,7 +389,7 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>2975.16</v>
+        <v>4726.87460522</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -403,7 +403,7 @@
         <v>4</v>
       </c>
       <c r="B18">
-        <v>10734.2</v>
+        <v>10973.9920241</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -417,7 +417,7 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>4692.13</v>
+        <v>5534.13484415</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -431,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="B20">
-        <v>9721.709999999999</v>
+        <v>9920.822482580001</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -445,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>9713.07</v>
+        <v>10093.9755614</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -459,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <v>4151.84</v>
+        <v>4161.26554807</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>9850.77</v>
+        <v>9863.62618297</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <v>8444.75</v>
+        <v>8445.11739858</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>1024.18</v>
+        <v>1373.4916239</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="B26">
-        <v>14684.2</v>
+        <v>15457.276101</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
